--- a/medicine/Psychotrope/Coteaux-de-tannay/Coteaux-de-tannay.xlsx
+++ b/medicine/Psychotrope/Coteaux-de-tannay/Coteaux-de-tannay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Coteaux-de-Tannay, anciennement vin de Pays des Coteaux-de-Tannay, est un vignoble français d'indication géographique protégée de zone, produit dans le département de la Nièvre.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture du vin dans cette zone est une activité ancienne. En effet, en 1300, du vin aurait été commandé dans le but d'approvisionner le roi. On parle alors des Vins de Clamecy.
 Une autre anecdote permet de se rendre compte de l'importance ancienne de cette activité. Vers 1500, la ville de Tannay fait édifier des remparts. Ces derniers ont été financés grâce à une taxe sur les vins.
@@ -551,16 +565,93 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Aire de l'IGP
-Les communes de la Nièvre
-Le vignoble s'étend sur 21 ha répartis sur cinquante-six communes dans la Nièvre : Amazy, Armes, Asnan, Asnois, Authiou, Beaulieu, Beuvron, Billy-sur-Oisy, Breugnon, Brèves, Brinon-sur-Beuvron, Bussy-la-Pesle, Challement, Champallement, Chazeuil, Chevannes-Changy, Chevroches, Clamecy, Corvol-d'Embernard, Dirol, Dompierre-sur-Héry, Dornecy, Flez-Cuzy, Germenay, Grenois, Guipy, Héry, Lys, La Maison-Dieu, Metz-le-Comte, Michaugues, Moissy-Moulinot, Monceaux-le-Comte, Moraches, Neuffontaines, Neuilly, Nuars, Oisy, Ouagne, Pousseaux, Rix, Ruages, Saint-Aubin-des-Chaumes, Saint-Didier, Saint-Germain-des-Bois, Saint-Révérien, Saizy, Surgy, Taconnay, Talon, Tannay, Teigny, Trucy-l'Orgueilleux, Vignol, Villiers-sur-Yonne et Vitry-Laché.
-Orographie et géologie
-La zone est dominée par des sols argilo-calcaire. ces derniers reposent sur des formations datant du bathonien supérieur et inférieur. Trois types de sols peuvent être distingués:
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Les communes de la Nièvre</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur 21 ha répartis sur cinquante-six communes dans la Nièvre : Amazy, Armes, Asnan, Asnois, Authiou, Beaulieu, Beuvron, Billy-sur-Oisy, Breugnon, Brèves, Brinon-sur-Beuvron, Bussy-la-Pesle, Challement, Champallement, Chazeuil, Chevannes-Changy, Chevroches, Clamecy, Corvol-d'Embernard, Dirol, Dompierre-sur-Héry, Dornecy, Flez-Cuzy, Germenay, Grenois, Guipy, Héry, Lys, La Maison-Dieu, Metz-le-Comte, Michaugues, Moissy-Moulinot, Monceaux-le-Comte, Moraches, Neuffontaines, Neuilly, Nuars, Oisy, Ouagne, Pousseaux, Rix, Ruages, Saint-Aubin-des-Chaumes, Saint-Didier, Saint-Germain-des-Bois, Saint-Révérien, Saizy, Surgy, Taconnay, Talon, Tannay, Teigny, Trucy-l'Orgueilleux, Vignol, Villiers-sur-Yonne et Vitry-Laché.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coteaux-de-tannay</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-tannay</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Orographie et géologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La zone est dominée par des sols argilo-calcaire. ces derniers reposent sur des formations datant du bathonien supérieur et inférieur. Trois types de sols peuvent être distingués:
 des petites terres. Il s'agit de sol très drainant car ils sont riches en cailloux et en éléments grossiers.
 des sols de couleur ocre. C'est la richesse en argile qui leur donne cette couleur.
-des terres de couleur claires, à la structure claire et homogène.
-Climat
-La zone est dominée par un climat continental. Ce dernier reste cependant marqué par des influences océaniques et ligériennes.
+des terres de couleur claires, à la structure claire et homogène.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coteaux-de-tannay</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-tannay</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La zone est dominée par un climat continental. Ce dernier reste cependant marqué par des influences océaniques et ligériennes.
 La spécificité de la zone fait que le vignoble est protégé des vents d'Ouest par les lignes des plateaux boisés. Ainsi, les précipitations sont plutôt faibles comparée au reste du département, et l'ensoleillement est plus important.
 En termes de saisonnalité :
 le printemps est frais et humide,
@@ -569,55 +660,207 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Coteaux-de-tannay</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coteaux-de-tannay</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coteaux-de-tannay</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-tannay</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Conditions de production
-Encépagement
-Cépages pour les vins rouges
-Les variétés utilisées sont : le gamay N, le gamay de Bouze N, le gamay de Chaudenay N et le pinot noir N.
-Cépages pour les vins rouges et rosés
-Les variétés utilisées sont : le gamay N, le gamay de Bouze N, le gamay de Chaudenay N, le pinot gris G et le pinot noir N.
-Cépages pour les vins blancs
-Les variétés utilisées sont : l'auxerrois B, le chardonnay B, le melon B, le pinot blanc B et le pinot gris G.
-Types de vin
-Il existe 9 labellisations différentes :
-Coteaux de Tannay blanc[1]
-Coteaux de Tannay rosé[2]
-Coteaux de Tannay rouge[3]
-Coteaux de Tannay mousseux de qualité blanc[4]
-Coteaux de Tannay mousseux de qualité rosé[5]
-Coteaux de Tannay mousseux de qualité rouge[6]
-Coteaux de Tannay primeur ou nouveau blanc[7]
-Coteaux de Tannay primeur ou nouveau rosé[8]
-Coteaux de Tannay primeur ou nouveau rouge[9]
-Vin et gastronomie
-Production et structure des exploitations
-La production moyenne est de 730 hl (moyenne depuis 2015). Le site Internet IGP du Val de Loire répertorie 6 producteurs sous cette appellation[10].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cépages pour les vins rouges</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les variétés utilisées sont : le gamay N, le gamay de Bouze N, le gamay de Chaudenay N et le pinot noir N.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coteaux-de-tannay</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-tannay</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cépages pour les vins rouges et rosés</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les variétés utilisées sont : le gamay N, le gamay de Bouze N, le gamay de Chaudenay N, le pinot gris G et le pinot noir N.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coteaux-de-tannay</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-tannay</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cépages pour les vins blancs</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les variétés utilisées sont : l'auxerrois B, le chardonnay B, le melon B, le pinot blanc B et le pinot gris G.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coteaux-de-tannay</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-tannay</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Types de vin</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Il existe 9 labellisations différentes :
+Coteaux de Tannay blanc
+Coteaux de Tannay rosé
+Coteaux de Tannay rouge
+Coteaux de Tannay mousseux de qualité blanc
+Coteaux de Tannay mousseux de qualité rosé
+Coteaux de Tannay mousseux de qualité rouge
+Coteaux de Tannay primeur ou nouveau blanc
+Coteaux de Tannay primeur ou nouveau rosé
+Coteaux de Tannay primeur ou nouveau rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coteaux-de-tannay</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-de-tannay</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Production et structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production moyenne est de 730 hl (moyenne depuis 2015). Le site Internet IGP du Val de Loire répertorie 6 producteurs sous cette appellation.
 </t>
         </is>
       </c>
